--- a/StructureDefinition-regular-alcohol-intake.xlsx
+++ b/StructureDefinition-regular-alcohol-intake.xlsx
@@ -1350,7 +1350,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="https://www.netzwerk-universitaetsmedizin.de/fhir/CodeSystem/napkon-vaccination-module"/&gt;
+    &lt;system value="https://www.napkon.de/fhir/CodeSystem/napkon-vaccination-module"/&gt;
     &lt;code value="no-longer"/&gt;
     &lt;display value="No longer"/&gt;
   &lt;/coding&gt;
